--- a/MIL.RTI.CourseDocumentGenerator/MIL.RTI.CourseDocumentGenerator/Files/13M30/Individual_Student_Progress_Sheet_13M30_Phase1.xlsx
+++ b/MIL.RTI.CourseDocumentGenerator/MIL.RTI.CourseDocumentGenerator/Files/13M30/Individual_Student_Progress_Sheet_13M30_Phase1.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\github\CourseDocumentGenerator\MIL.RTI.CourseDocumentGenerator\MIL.RTI.CourseDocumentGenerator\Files\13M30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5231EA-A926-494A-8B76-E0BF1FAC83D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9269C45C-D16B-4565-9FC1-8A05E35048A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>GO</t>
   </si>
@@ -43,10 +43,67 @@
     <t>2nd Bn, 196TH REGT (RTISD)</t>
   </si>
   <si>
-    <t xml:space="preserve">Name:      </t>
+    <t xml:space="preserve">Name:             </t>
   </si>
   <si>
     <t>13M30 ALC Phase 1              TASK NUMBER</t>
+  </si>
+  <si>
+    <t>400-A200 / Course Overview</t>
+  </si>
+  <si>
+    <t>061-GS63IP/ Conduct In-Process and Orientation</t>
+  </si>
+  <si>
+    <t>805P-ACFT0001/  Conduct the Army Combat Fitness Test</t>
+  </si>
+  <si>
+    <t>061-GS63PT/ Conduct Height and weight / Physical Readiness Training</t>
+  </si>
+  <si>
+    <t>400-A201 / Army Discipline and Standards</t>
+  </si>
+  <si>
+    <t>400-A202 / The Army Leader</t>
+  </si>
+  <si>
+    <t>400-A203 / Research and Case Studies</t>
+  </si>
+  <si>
+    <t>400-A204 / Build Trust in Teams</t>
+  </si>
+  <si>
+    <t>400-A205 / Mission Orders and the Military Decision-making Process</t>
+  </si>
+  <si>
+    <t>400-A206 / Persuasive Essay</t>
+  </si>
+  <si>
+    <t>400-A207 / Coaching, Counseling, and Mentorship</t>
+  </si>
+  <si>
+    <t>400-A208 / Military Briefing</t>
+  </si>
+  <si>
+    <t>400-A209 / Physical Fitness Program</t>
+  </si>
+  <si>
+    <t>400-A210 / Training Management</t>
+  </si>
+  <si>
+    <t>400-A212 / Contemporary Issues</t>
+  </si>
+  <si>
+    <t>061-GS63LR/ Operate AN/PRC-150© Long Range Communication (HARRIS)</t>
+  </si>
+  <si>
+    <t>061-GS63CE/ End of Course Evaluation</t>
+  </si>
+  <si>
+    <t>061-GS63OP/ Conduct Out-Process</t>
+  </si>
+  <si>
+    <t>400-A211 / The Army’s Maintenance Program</t>
   </si>
 </sst>
 </file>
@@ -220,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -237,14 +294,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -624,48 +684,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -685,39 +743,190 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" s="8"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" s="8"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L
-&amp;C13M10 Student Progress Control Worksheet&amp;R196th Regiment</oddHeader>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>